--- a/DonnSmith/расчет.xlsx
+++ b/DonnSmith/расчет.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tesla\DonnSmith\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9859D5DF-174F-4ED2-94AB-B3CEDB405D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -54,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -123,7 +125,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -204,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,27 +238,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,24 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -481,20 +447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -505,24 +471,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.9920000000000009</v>
+        <v>9.3685143125000021</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>(10-C5)/2</f>
+        <v>0.31574284374999895</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <f>C5*4</f>
-        <v>39.968000000000004</v>
+        <v>37.474057250000008</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -531,13 +501,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <f>C4/C6</f>
-        <v>7500812.0996797429</v>
+        <v>7999999.9999999981</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -547,143 +517,449 @@
       </c>
       <c r="F7">
         <f>$C$7/E7</f>
-        <v>7500812.0996797429</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7999999.9999999981</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <f>C7/1000000</f>
-        <v>7.5008120996797434</v>
+        <v>7.9999999999999982</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F64" si="0">$C$7/E8</f>
-        <v>7500.8120996797434</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F8:F21" si="0">$C$7/E8</f>
+        <v>3999999.9999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="E9">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5000.5413997864953</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2666666.666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="E10">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3750.4060498398717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1999999.9999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="E11">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3000.324839871897</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1599999.9999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="E12">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>2500.2706998932476</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1333333.333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="E13">
-        <v>3500</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2143.0891713370693</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1142857.1428571425</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="E14">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1875.2030249199358</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>999999.99999999977</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G40" si="1">F14/1000</f>
+        <v>999.99999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
       <c r="E15">
-        <v>4500</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1666.847133262165</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>888888.88888888864</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>888.88888888888869</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1.0121144809466098</v>
+      </c>
       <c r="E16">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1500.1624199359485</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+        <v>799999.99999999977</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>799.99999999999977</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17">
+        <v>0.92860178700588336</v>
+      </c>
       <c r="E17">
-        <v>5500</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>1363.7840181235897</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+        <v>727272.72727272706</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>727.27272727272702</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="E18">
-        <v>6000</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>1250.1353499466238</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+        <v>666666.66666666651</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>666.66666666666652</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="E19">
-        <v>6500</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>1153.971092258422</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+        <v>615384.61538461526</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>615.38461538461524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="E20">
-        <v>7000</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1071.5445856685346</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+        <v>571428.57142857125</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>571.42857142857122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" s="1">
+        <f>PRODUCT(C15:C20)/SUM(C15:C20)</f>
+        <v>4.4369986894319524</v>
+      </c>
+      <c r="D21" s="1">
+        <f>PRODUCT(D15:D20)/SUM(D15:D20)</f>
+        <v>0.91909186260076714</v>
+      </c>
       <c r="E21">
-        <v>7500</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>1000.108279957299</v>
+        <v>533333.33333333326</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>533.33333333333326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F25" si="2">$C$7/E22</f>
+        <v>499999.99999999988</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>499.99999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <f>1600000*5</f>
+        <v>8000000</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>470588.23529411753</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>470.58823529411751</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>444444.44444444432</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>444.44444444444434</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>421052.63157894724</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>421.05263157894723</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F35" si="3">$C$7/E26</f>
+        <v>399999.99999999988</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>399.99999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>380952.38095238089</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>380.95238095238091</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>363636.36363636353</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>363.63636363636351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>347826.08695652167</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>347.82608695652169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>333333.33333333326</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>333.33333333333326</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>319999.99999999994</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>319.99999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>307692.30769230763</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>307.69230769230762</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>296296.29629629623</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>296.29629629629625</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>285714.28571428562</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>285.71428571428561</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>275862.06896551716</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>275.86206896551715</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F40" si="4">$C$7/E36</f>
+        <v>266666.66666666663</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>266.66666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>258064.51612903218</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>258.0645161290322</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>249999.99999999994</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>249.99999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>242424.24242424237</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>242.42424242424238</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>235294.11764705877</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>235.29411764705875</v>
       </c>
     </row>
   </sheetData>
@@ -693,24 +969,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DonnSmith/расчет.xlsx
+++ b/DonnSmith/расчет.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Длина намотки</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>гармоники вниз</t>
+  </si>
+  <si>
+    <t>текущая емкость</t>
+  </si>
+  <si>
+    <t>текущая частота</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xc = 1/(2πƒC)</t>
+  </si>
+  <si>
+    <t>Xl = 2πƒL</t>
+  </si>
+  <si>
+    <t>текущая индуктивность</t>
+  </si>
+  <si>
+    <t>искомая частота</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>искомая емкость</t>
   </si>
 </sst>
 </file>
@@ -72,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,14 +107,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="B26:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,7 +678,7 @@
         <v>799.99999999999977</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="3:7">
       <c r="C17">
         <v>0.92860178700588336</v>
       </c>
@@ -651,7 +694,7 @@
         <v>727.27272727272702</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="3:7">
       <c r="E18">
         <v>12</v>
       </c>
@@ -664,7 +707,7 @@
         <v>666.66666666666652</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="3:7">
       <c r="E19">
         <v>13</v>
       </c>
@@ -677,7 +720,7 @@
         <v>615.38461538461524</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="3:7">
       <c r="E20">
         <v>14</v>
       </c>
@@ -690,7 +733,7 @@
         <v>571.42857142857122</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="3:7">
       <c r="C21" s="1">
         <f>PRODUCT(C15:C20)/SUM(C15:C20)</f>
         <v>4.4369986894319524</v>
@@ -711,7 +754,7 @@
         <v>533.33333333333326</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="3:7">
       <c r="E22">
         <v>16</v>
       </c>
@@ -724,11 +767,7 @@
         <v>499.99999999999989</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23">
-        <f>1600000*5</f>
-        <v>8000000</v>
-      </c>
+    <row r="23" spans="3:7">
       <c r="E23">
         <v>17</v>
       </c>
@@ -741,7 +780,7 @@
         <v>470.58823529411751</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="3:7">
       <c r="E24">
         <v>18</v>
       </c>
@@ -754,7 +793,7 @@
         <v>444.44444444444434</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="3:7">
       <c r="E25">
         <v>19</v>
       </c>
@@ -767,7 +806,7 @@
         <v>421.05263157894723</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="3:7">
       <c r="E26">
         <v>20</v>
       </c>
@@ -780,7 +819,7 @@
         <v>399.99999999999989</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="3:7">
       <c r="E27">
         <v>21</v>
       </c>
@@ -793,7 +832,7 @@
         <v>380.95238095238091</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="3:7">
       <c r="E28">
         <v>22</v>
       </c>
@@ -806,7 +845,7 @@
         <v>363.63636363636351</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="3:7">
       <c r="E29">
         <v>23</v>
       </c>
@@ -819,7 +858,7 @@
         <v>347.82608695652169</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="3:7">
       <c r="E30">
         <v>24</v>
       </c>
@@ -832,7 +871,7 @@
         <v>333.33333333333326</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="3:7">
       <c r="E31">
         <v>25</v>
       </c>
@@ -845,7 +884,7 @@
         <v>319.99999999999994</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="3:7">
       <c r="E32">
         <v>26</v>
       </c>
@@ -970,16 +1009,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D10"/>
+  <dimension ref="C10:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:4">
       <c r="D10" s="2"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.7999999999999998E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1096000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <f>1/(2*PI()*D13*D12)</f>
+        <v>25.036959333610522</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D14</f>
+        <v>25.036959333610522</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D15/(2*PI()*D13)</f>
+        <v>3.6357261295026281E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <f>2*PI()*D18*D16</f>
+        <v>36.550305596511706</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D19</f>
+        <v>36.550305596511706</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <f>1/(2*PI()*D20*D18)</f>
+        <v>2.7215049999999997E-9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DonnSmith/расчет.xlsx
+++ b/DonnSmith/расчет.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Длина намотки</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>искомая емкость</t>
+  </si>
+  <si>
+    <t>длинна витка</t>
+  </si>
+  <si>
+    <t>длинна</t>
+  </si>
+  <si>
+    <t>число витков</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>емкость</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -126,11 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -146,6 +169,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2126550743657043"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.72862970253718273"/>
+          <c:h val="0.79822506561679785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0967847769028871E-2"/>
+                  <c:y val="0.21963655584718578"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$H$13:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$13:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="250178176"/>
+        <c:axId val="250176640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="250178176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="250176640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="250176640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="250178176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -168,7 +304,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,6 +337,41 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -493,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="B26:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="C15:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,14 +690,15 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.3685143125000021</v>
+        <f>37.5*2</f>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <f>(10-C5)/2</f>
-        <v>0.31574284374999895</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -535,7 +707,7 @@
       </c>
       <c r="C6">
         <f>C5*4</f>
-        <v>37.474057250000008</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -550,7 +722,7 @@
       </c>
       <c r="C7">
         <f>C4/C6</f>
-        <v>7999999.9999999981</v>
+        <v>999308.19333333336</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -560,7 +732,7 @@
       </c>
       <c r="F7">
         <f>$C$7/E7</f>
-        <v>7999999.9999999981</v>
+        <v>999308.19333333336</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -569,7 +741,7 @@
       </c>
       <c r="C8">
         <f>C7/1000000</f>
-        <v>7.9999999999999982</v>
+        <v>0.99930819333333332</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -579,7 +751,7 @@
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F21" si="0">$C$7/E8</f>
-        <v>3999999.9999999991</v>
+        <v>499654.09666666668</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -588,7 +760,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2666666.666666666</v>
+        <v>333102.73111111112</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -597,7 +769,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1999999.9999999995</v>
+        <v>249827.04833333334</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -606,7 +778,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1599999.9999999995</v>
+        <v>199861.63866666667</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -615,7 +787,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1333333.333333333</v>
+        <v>166551.36555555556</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -624,7 +796,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1142857.1428571425</v>
+        <v>142758.31333333332</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -633,268 +805,245 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>999999.99999999977</v>
+        <v>124913.52416666667</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G40" si="1">F14/1000</f>
-        <v>999.99999999999977</v>
+        <v>124.91352416666668</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>888888.88888888864</v>
+        <v>111034.2437037037</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>888.88888888888869</v>
+        <v>111.03424370370371</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1.0121144809466098</v>
-      </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>799999.99999999977</v>
+        <v>99930.819333333333</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>799.99999999999977</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17">
-        <v>0.92860178700588336</v>
-      </c>
+        <v>99.930819333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>727272.72727272706</v>
+        <v>90846.199393939401</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>727.27272727272702</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>90.846199393939401</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
       <c r="E18">
         <v>12</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>666666.66666666651</v>
+        <v>83275.68277777778</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>666.66666666666652</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
+        <v>83.275682777777774</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
       <c r="E19">
         <v>13</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>615384.61538461526</v>
+        <v>76869.861025641032</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>615.38461538461524</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
+        <v>76.869861025641029</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
       <c r="E20">
         <v>14</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>571428.57142857125</v>
+        <v>71379.156666666662</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>571.42857142857122</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="1">
-        <f>PRODUCT(C15:C20)/SUM(C15:C20)</f>
-        <v>4.4369986894319524</v>
-      </c>
-      <c r="D21" s="1">
-        <f>PRODUCT(D15:D20)/SUM(D15:D20)</f>
-        <v>0.91909186260076714</v>
-      </c>
+        <v>71.37915666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>533333.33333333326</v>
+        <v>66620.546222222227</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>533.33333333333326</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
+        <v>66.620546222222231</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
       <c r="E22">
         <v>16</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F25" si="2">$C$7/E22</f>
-        <v>499999.99999999988</v>
+        <v>62456.762083333335</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>499.99999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
+        <v>62.456762083333338</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
       <c r="E23">
         <v>17</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>470588.23529411753</v>
+        <v>58782.834901960785</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>470.58823529411751</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
+        <v>58.782834901960783</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24">
         <v>18</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>444444.44444444432</v>
+        <v>55517.121851851851</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>444.44444444444434</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
+        <v>55.517121851851854</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
       <c r="E25">
         <v>19</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>421052.63157894724</v>
+        <v>52595.168070175438</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>421.05263157894723</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
+        <v>52.59516807017544</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26">
         <f t="shared" ref="F26:F35" si="3">$C$7/E26</f>
-        <v>399999.99999999988</v>
+        <v>49965.409666666666</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>399.99999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
+        <v>49.965409666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
       <c r="E27">
         <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>380952.38095238089</v>
+        <v>47586.104444444449</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>380.95238095238091</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
+        <v>47.586104444444452</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
       <c r="E28">
         <v>22</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>363636.36363636353</v>
+        <v>45423.099696969701</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>363.63636363636351</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
+        <v>45.4230996969697</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
       <c r="E29">
         <v>23</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>347826.08695652167</v>
+        <v>43448.182318840583</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>347.82608695652169</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
+        <v>43.44818231884058</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
       <c r="E30">
         <v>24</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>333333.33333333326</v>
+        <v>41637.84138888889</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>333.33333333333326</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
+        <v>41.637841388888887</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
       <c r="E31">
         <v>25</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>319999.99999999994</v>
+        <v>39972.327733333332</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>319.99999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
+        <v>39.97232773333333</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
       <c r="E32">
         <v>26</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>307692.30769230763</v>
+        <v>38434.930512820516</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>307.69230769230762</v>
+        <v>38.434930512820515</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -903,11 +1052,11 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>296296.29629629623</v>
+        <v>37011.414567901236</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>296.29629629629625</v>
+        <v>37.011414567901234</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -916,11 +1065,11 @@
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>285714.28571428562</v>
+        <v>35689.578333333331</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>285.71428571428561</v>
+        <v>35.68957833333333</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -929,11 +1078,11 @@
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>275862.06896551716</v>
+        <v>34458.903218390806</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>275.86206896551715</v>
+        <v>34.458903218390809</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -942,11 +1091,11 @@
       </c>
       <c r="F36">
         <f t="shared" ref="F36:F40" si="4">$C$7/E36</f>
-        <v>266666.66666666663</v>
+        <v>33310.273111111113</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>266.66666666666663</v>
+        <v>33.310273111111115</v>
       </c>
     </row>
     <row r="37" spans="5:7">
@@ -955,11 +1104,11 @@
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>258064.51612903218</v>
+        <v>32235.748172043011</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>258.0645161290322</v>
+        <v>32.23574817204301</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -968,11 +1117,11 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>249999.99999999994</v>
+        <v>31228.381041666667</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>249.99999999999994</v>
+        <v>31.228381041666669</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -981,11 +1130,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>242424.24242424237</v>
+        <v>30282.066464646465</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>242.42424242424238</v>
+        <v>30.282066464646466</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -994,11 +1143,11 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>235294.11764705877</v>
+        <v>29391.417450980392</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>235.29411764705875</v>
+        <v>29.391417450980391</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C10:D21"/>
+  <dimension ref="C10:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,100 +1169,208 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:22">
       <c r="D10" s="2"/>
     </row>
-    <row r="12" spans="3:4">
+    <row r="11" spans="3:22">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>5.7999999999999998E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>2.7E-10</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12*1000000000000</f>
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1096000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
+        <v>1450000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>270</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1450</v>
+      </c>
+      <c r="U13">
+        <v>560</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
         <f>1/(2*PI()*D13*D12)</f>
-        <v>25.036959333610522</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+        <v>406.52603599462412</v>
+      </c>
+      <c r="H14" s="5">
+        <v>560</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1280</v>
+      </c>
+      <c r="U14">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2">
         <f>D14</f>
-        <v>25.036959333610522</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
+        <v>406.52603599462412</v>
+      </c>
+      <c r="H15" s="5">
+        <v>680</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2">
         <f>D15/(2*PI()*D13)</f>
-        <v>3.6357261295026281E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>4.4621122844205652E-5</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:22">
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:22">
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2">
         <f>2*PI()*D18*D16</f>
-        <v>36.550305596511706</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>280.36278344456832</v>
+      </c>
+      <c r="H19">
+        <v>560</v>
+      </c>
+      <c r="I19">
+        <f>-0.001*(H19^2)+0.808*H19+1354</f>
+        <v>1492.88</v>
+      </c>
+      <c r="U19" s="1">
+        <f>PRODUCT(U13:U18)/SUM(U13:U18)</f>
+        <v>451.86206896551727</v>
+      </c>
+      <c r="V19" s="1">
+        <f>PRODUCT(V13:V18)/SUM(V13:V18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2">
         <f>D19</f>
-        <v>36.550305596511706</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>280.36278344456832</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22">
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2">
         <f>1/(2*PI()*D20*D18)</f>
-        <v>2.7215049999999997E-9</v>
+        <v>5.6767500000000011E-10</v>
+      </c>
+      <c r="E21" s="4">
+        <f>D21*1000000000000</f>
+        <v>567.67500000000007</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C8:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f>D9/D8</f>
+        <v>120.68965517241379</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>